--- a/nba2k26_editor/Offsets/Players.xlsx
+++ b/nba2k26_editor/Offsets/Players.xlsx
@@ -20,10 +20,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contracts" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Edit" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Jerseys" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Pointers" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Retired Entry" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Stadium" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Vitals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Stadium" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Vitals" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3348,7 +3346,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NICKNAME_CREATED</t>
+          <t>NICKNAME1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3358,27 +3356,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NICKNAMECREATED</t>
+          <t>NICKNAME1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NICKNAME_CREATED</t>
+          <t>NICKNAME1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0x192 (type=combo, length=7, startBit=5)</t>
+          <t>0x1E8 (type=string, length=256, startBit=0)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0x16F (type=combo, length=7, startBit=0)</t>
+          <t>0x1C8 (type=string, length=256, startBit=0)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0x16F (type=combo, length=7, startBit=0)</t>
+          <t>0x1C8 (type=string, length=256, startBit=0)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -3387,7 +3385,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Nickname 1</t>
+          <t>NICKNAME_CREATED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3397,40 +3395,36 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NICKNAME1</t>
+          <t>NICKNAMECREATED</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NICKNAME1, Nickname 1</t>
+          <t>NICKNAME_CREATED</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0x1E8 (type=string, length=256, startBit=0)</t>
+          <t>0x192 (type=combo, length=7, startBit=5)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0x1C8 (type=string, length=256, startBit=0)</t>
+          <t>0x16F (type=combo, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0x1C8 (type=string, length=256, startBit=0)</t>
+          <t>0x16F (type=combo, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>0x1F8 (type=WString, length=20)</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Nickname 2</t>
+          <t>ORIGINALINJURY1TYPE</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3440,28 +3434,36 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NICKNAME2</t>
+          <t>ORIGINALINJURY1TYPE</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Nickname 2</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+          <t>ORIGINALINJURY1TYPE</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x194 (type=combo, length=8, startBit=7)</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0x170 (type=combo, length=8, startBit=7)</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0x170 (type=combo, length=8, startBit=7)</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>0x220 (type=WString, length=20)</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORIGINALINJURY1TYPE</t>
+          <t>ORIGINALINJURY2TYPE</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3471,27 +3473,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ORIGINALINJURY1TYPE</t>
+          <t>ORIGINALINJURY2TYPE</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ORIGINALINJURY1TYPE</t>
+          <t>ORIGINALINJURY2TYPE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0x194 (type=combo, length=8, startBit=7)</t>
+          <t>0x307 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0x170 (type=combo, length=8, startBit=7)</t>
+          <t>0x2E3 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0x170 (type=combo, length=8, startBit=7)</t>
+          <t>0x2E3 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -3500,7 +3502,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORIGINALINJURY2TYPE</t>
+          <t>PERSONALITY</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3510,27 +3512,23 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ORIGINALINJURY2TYPE</t>
+          <t>PERSONALITY</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ORIGINALINJURY2TYPE</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0x307 (type=combo, length=8, startBit=0)</t>
-        </is>
-      </c>
+          <t>PERSONALITY</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0x2E3 (type=combo, length=8, startBit=0)</t>
+          <t>0x4C0 (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0x2E3 (type=combo, length=8, startBit=0)</t>
+          <t>0x4C0 (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3539,7 +3537,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PERSONALITY</t>
+          <t>PHOTOID</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3549,23 +3547,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PERSONALITY</t>
+          <t>PHOTOID</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PERSONALITY</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
+          <t>PHOTOID</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x2F8 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0x4C0 (type=combo, length=3, startBit=1)</t>
+          <t>0x2D4 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0x4C0 (type=combo, length=3, startBit=1)</t>
+          <t>0x2D4 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -3574,7 +3576,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PHOTOID</t>
+          <t>PREVIOUS_TEAM</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3584,36 +3586,28 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PHOTOID</t>
+          <t>PREVIOUSTEAM</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PHOTOID</t>
+          <t>PREVIOUS_TEAM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0x2F8 (type=number, length=16, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>0x2D4 (type=number, length=16, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0x2D4 (type=number, length=16, startBit=0)</t>
-        </is>
-      </c>
+          <t>0xA0 (type=combo, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PREVIOUS_TEAM</t>
+          <t>Peak End</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3623,28 +3617,40 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PREVIOUSTEAM</t>
+          <t>PEAKEND</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PREVIOUS_TEAM</t>
+          <t>PEAKEND, Peak End</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0xA0 (type=combo, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+          <t>0x73 (type=bit, length=6, startBit=2)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0x73 (type=bit, length=6, startBit=2)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0x73 (type=bit, length=6, startBit=2)</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>0x10F (type=Integer, length=6, startBit=0)</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Peak End</t>
+          <t>Peak Start</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3654,40 +3660,40 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PEAKEND</t>
+          <t>PEAKSTART</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PEAKEND, Peak End</t>
+          <t>PEAKSTART, Peak Start</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0x73 (type=bit, length=6, startBit=2)</t>
+          <t>0x72 (type=bit, length=6, startBit=4)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0x73 (type=bit, length=6, startBit=2)</t>
+          <t>0x72 (type=bit, length=6, startBit=4)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0x73 (type=bit, length=6, startBit=2)</t>
+          <t>0x72 (type=bit, length=6, startBit=4)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0x10F (type=Integer, length=6, startBit=0)</t>
+          <t>0x10E (type=Integer, length=6, startBit=2)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Peak Start</t>
+          <t>Play For Winner</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3697,40 +3703,40 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PEAKSTART</t>
+          <t>PLAYFORWINNER</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PEAKSTART, Peak Start</t>
+          <t>PLAYFORWINNER, Play For Winner</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0x72 (type=bit, length=6, startBit=4)</t>
+          <t>0x229 (type=bit, length=7, startBit=4)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0x72 (type=bit, length=6, startBit=4)</t>
+          <t>0x209 (type=bit, length=7, startBit=4)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0x72 (type=bit, length=6, startBit=4)</t>
+          <t>0x209 (type=bit, length=7, startBit=4)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0x10E (type=Integer, length=6, startBit=2)</t>
+          <t>0x2B9 (type=Integer, length=7, startBit=4)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Play For Winner</t>
+          <t>Play Initiator</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3740,40 +3746,44 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PLAYFORWINNER</t>
+          <t>PLAYINITIATOR</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PLAYFORWINNER, Play For Winner</t>
+          <t>PLAY_INITIATOR, Play Initiator</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0x229 (type=bit, length=7, startBit=4)</t>
+          <t>0x16A (type=combo, length=1, startBit=2)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0x209 (type=bit, length=7, startBit=4)</t>
+          <t>0x146 (type=combo, length=1, startBit=2)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0x209 (type=bit, length=7, startBit=4)</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
+          <t>0x146 (type=combo, length=1, startBit=2)</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>0x25f (type=Integer, length=1, startBit=5)</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0x2B9 (type=Integer, length=7, startBit=4)</t>
+          <t>0x2AE (type=Integer, length=1, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Play Initiator</t>
+          <t>Play Type 1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3783,44 +3793,44 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PLAYINITIATOR</t>
+          <t>PLAYTYPE1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PLAY_INITIATOR, Play Initiator</t>
+          <t>PLAY_TYPE_1, Play Type 1, Playtype 1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0x16A (type=combo, length=1, startBit=2)</t>
+          <t>0x168 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0x146 (type=combo, length=1, startBit=2)</t>
+          <t>0x144 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0x146 (type=combo, length=1, startBit=2)</t>
+          <t>0x144 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0x25f (type=Integer, length=1, startBit=5)</t>
+          <t>0x194 (type=Integer, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0x2AE (type=Integer, length=1, startBit=5)</t>
+          <t>0x19C (type=Integer, length=4, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Play Type 1</t>
+          <t>Play Type 2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3830,44 +3840,44 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PLAYTYPE1</t>
+          <t>PLAYTYPE2</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PLAY_TYPE_1, Play Type 1, Playtype 1</t>
+          <t>PLAY_TYPE_2, Play Type 2, Playtype 2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0x168 (type=combo, length=4, startBit=0)</t>
+          <t>0x168 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0x144 (type=combo, length=4, startBit=0)</t>
+          <t>0x144 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0x144 (type=combo, length=4, startBit=0)</t>
+          <t>0x144 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0x194 (type=Integer, length=4, startBit=0)</t>
+          <t>0x194 (type=Integer, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0x19C (type=Integer, length=4, startBit=0)</t>
+          <t>0x19C (type=Integer, length=4, startBit=4)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Play Type 2</t>
+          <t>Play Type 3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3877,44 +3887,44 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>PLAYTYPE2</t>
+          <t>PLAYTYPE3POINT</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PLAY_TYPE_2, Play Type 2, Playtype 2</t>
+          <t>PLAY_TYPE_3, Play Type 3, Playtype 3</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0x168 (type=combo, length=4, startBit=4)</t>
+          <t>0x169 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0x144 (type=combo, length=4, startBit=4)</t>
+          <t>0x145 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0x144 (type=combo, length=4, startBit=4)</t>
+          <t>0x145 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0x194 (type=Integer, length=4, startBit=4)</t>
+          <t>0x195 (type=Integer, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0x19C (type=Integer, length=4, startBit=4)</t>
+          <t>0x19D (type=Integer, length=4, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Play Type 3</t>
+          <t>Play Type 4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3924,44 +3934,44 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PLAYTYPE3POINT</t>
+          <t>PLAYTYPE4</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PLAY_TYPE_3, Play Type 3, Playtype 3</t>
+          <t>PLAY_TYPE_4, Play Type 4, Playtype 4</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0x169 (type=combo, length=4, startBit=0)</t>
+          <t>0x169 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0x145 (type=combo, length=4, startBit=0)</t>
+          <t>0x145 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0x145 (type=combo, length=4, startBit=0)</t>
+          <t>0x145 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0x195 (type=Integer, length=4, startBit=0)</t>
+          <t>0x195 (type=Integer, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0x19D (type=Integer, length=4, startBit=0)</t>
+          <t>0x19D (type=Integer, length=4, startBit=4)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Play Type 4</t>
+          <t>Portrait ID</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3971,44 +3981,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PLAYTYPE4</t>
+          <t>PORTRAITID</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PLAY_TYPE_4, Play Type 4, Playtype 4</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0x169 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>0x145 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>0x145 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
+          <t>Portrait ID</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0x195 (type=Integer, length=4, startBit=4)</t>
+          <t>0x2d8 (type=Integer, length=18, startBit=0)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0x19D (type=Integer, length=4, startBit=4)</t>
+          <t>0x328 (type=Integer, length=18)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Portrait ID</t>
+          <t>Portrait Team 1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4018,32 +4016,44 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PORTRAITID</t>
+          <t>PORTRAITTEAM</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Portrait ID</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+          <t>PORTRAIT_TEAM, Portrait Team 1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0xB8 (type=combo, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0xB8 (type=combo, length=2, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0xB8 (type=combo, length=2, startBit=0)</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0x2d8 (type=Integer, length=18, startBit=0)</t>
+          <t>0xD8 (type=Pointer, length=64)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0x328 (type=Integer, length=18)</t>
+          <t>0xD8 (type=Pointer, length=64)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Portrait Team 1</t>
+          <t>Portrait Team 2</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4053,44 +4063,40 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PORTRAITTEAM</t>
+          <t>PORTRAITTEAM2</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>PORTRAIT_TEAM, Portrait Team 1</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>0xB8 (type=combo, length=8, startBit=0)</t>
-        </is>
-      </c>
+          <t>PORTRAIT_TEAM_2, Portrait Team 2</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0xB8 (type=combo, length=2, startBit=0)</t>
+          <t>0xBC (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0xB8 (type=combo, length=2, startBit=0)</t>
+          <t>0xBC (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0xD8 (type=Pointer, length=64)</t>
+          <t>0xD0 (type=Pointer, length=64)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0xD8 (type=Pointer, length=64)</t>
+          <t>0xD0 (type=Pointer, length=64)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Portrait Team 2</t>
+          <t>Position</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4100,40 +4106,44 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PORTRAITTEAM2</t>
+          <t>POSITION</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>PORTRAIT_TEAM_2, Portrait Team 2</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
+          <t>POSITION, Position</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0xF9 (type=combo, length=3, startBit=0)</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0xBC (type=combo, length=2, startBit=0)</t>
+          <t>0xD1 (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0xBC (type=combo, length=2, startBit=0)</t>
+          <t>0xD1 (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0xD0 (type=Pointer, length=64)</t>
+          <t>0x11d (type=Integer, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0xD0 (type=Pointer, length=64)</t>
+          <t>0x125 (type=Integer, length=3, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>QUALIFIESFORWORLDTEAM</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4143,44 +4153,36 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>POSITION</t>
+          <t>QUALIFIESFORWORLDTEAM</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>POSITION, Position</t>
+          <t>QUALIFIESFORWORLDTEAM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0xF9 (type=combo, length=3, startBit=0)</t>
+          <t>0x1BF (type=combo, length=1, startBit=7)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0xD1 (type=combo, length=3, startBit=0)</t>
+          <t>0x19F (type=combo, length=1, startBit=7)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0xD1 (type=combo, length=3, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>0x11d (type=Integer, length=3, startBit=0)</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>0x125 (type=Integer, length=3, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x19F (type=combo, length=1, startBit=7)</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>QUALIFIESFORWORLDTEAM</t>
+          <t>RECENT_DRAFT_SIGNING</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4190,27 +4192,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>QUALIFIESFORWORLDTEAM</t>
+          <t>RECENTDRAFTSIGNING</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>QUALIFIESFORWORLDTEAM</t>
+          <t>RECENT_DRAFT_SIGNING</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0x1BF (type=combo, length=1, startBit=7)</t>
+          <t>0x1B3 (type=combo, length=1, startBit=7)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0x19F (type=combo, length=1, startBit=7)</t>
+          <t>0x1B3 (type=combo, length=1, startBit=7)</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0x19F (type=combo, length=1, startBit=7)</t>
+          <t>0x1B3 (type=combo, length=1, startBit=7)</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -4219,7 +4221,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RECENT_DRAFT_SIGNING</t>
+          <t>RETIREMENT</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4229,27 +4231,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>RECENTDRAFTSIGNING</t>
+          <t>RETIREMENT</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RECENT_DRAFT_SIGNING</t>
+          <t>RETIREMENT</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0x1B3 (type=combo, length=1, startBit=7)</t>
+          <t>0x32C (type=bit, length=11, startBit=0)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0x1B3 (type=combo, length=1, startBit=7)</t>
+          <t>0x328 (type=bit, length=11, startBit=0)</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0x1B3 (type=combo, length=1, startBit=7)</t>
+          <t>0x328 (type=bit, length=11, startBit=0)</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -4258,7 +4260,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RETIREMENT</t>
+          <t>SHOULDERWIDTH</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4268,27 +4270,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>RETIREMENT</t>
+          <t>SHOULDERWIDTH</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RETIREMENT</t>
+          <t>SHOULDERWIDTH</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0x32C (type=bit, length=11, startBit=0)</t>
+          <t>0x90 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0x328 (type=bit, length=11, startBit=0)</t>
+          <t>0x88 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0x328 (type=bit, length=11, startBit=0)</t>
+          <t>0x88 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -4297,7 +4299,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SHOULDERWIDTH</t>
+          <t>SIGNATUREID</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4307,27 +4309,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SHOULDERWIDTH</t>
+          <t>SIGNATUREID</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SHOULDERWIDTH</t>
+          <t>SIGNATUREID</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0x90 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
+          <t>0xE8 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0x88 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
+          <t>0xC0 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0x88 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
+          <t>0xC0 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -4336,7 +4338,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SIGNATUREID</t>
+          <t>SKINCOLOR</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4346,27 +4348,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SIGNATUREID</t>
+          <t>SKINCOLOR</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SIGNATUREID</t>
+          <t>SKINCOLOR</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0xE8 (type=number, length=32, startBit=0)</t>
+          <t>0x90 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0xC0 (type=number, length=32, startBit=0)</t>
+          <t>0x88 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0xC0 (type=number, length=32, startBit=0)</t>
+          <t>0x88 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -4375,7 +4377,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SKINCOLOR</t>
+          <t>SKINTYPE</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4385,36 +4387,28 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SKINCOLOR</t>
+          <t>SKINTYPE</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SKINCOLOR</t>
+          <t>SKINTYPE</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0x90 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>0x88 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>0x88 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
-        </is>
-      </c>
+          <t>0x343 (type=combo, length=2, startBit=6)</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SKINTYPE</t>
+          <t>Secondary Position</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4424,28 +4418,44 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SKINTYPE</t>
+          <t>SECONDARYPOSITION</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SKINTYPE</t>
+          <t>Position 2, SECONDARY_POSITION, Secondary Position</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0x343 (type=combo, length=2, startBit=6)</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
+          <t>0xF9 (type=combo, length=3, startBit=3)</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0xD1 (type=combo, length=3, startBit=3)</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0xD1 (type=combo, length=3, startBit=3)</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>0x11d (type=Integer, length=3, startBit=3)</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>0x125 (type=Integer, length=3, startBit=3)</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Secondary Position</t>
+          <t>THIRD_POSITION</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4455,44 +4465,36 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SECONDARYPOSITION</t>
+          <t>THIRDPOSITION</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Position 2, SECONDARY_POSITION, Secondary Position</t>
+          <t>THIRD_POSITION</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0xF9 (type=combo, length=3, startBit=3)</t>
+          <t>0xF9 (type=combo, length=3, startBit=6)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0xD1 (type=combo, length=3, startBit=3)</t>
+          <t>0xD1 (type=combo, length=3, startBit=6)</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0xD1 (type=combo, length=3, startBit=3)</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>0x11d (type=Integer, length=3, startBit=3)</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>0x125 (type=Integer, length=3, startBit=3)</t>
-        </is>
-      </c>
+          <t>0xD1 (type=combo, length=3, startBit=6)</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>THIRD_POSITION</t>
+          <t>TYPE</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4502,27 +4504,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>THIRDPOSITION</t>
+          <t>TYPE</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>THIRD_POSITION</t>
+          <t>TYPE</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0xF9 (type=combo, length=3, startBit=6)</t>
+          <t>0x70 (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0xD1 (type=combo, length=3, startBit=6)</t>
+          <t>0x70 (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0xD1 (type=combo, length=3, startBit=6)</t>
+          <t>0x70 (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4531,7 +4533,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TYPE</t>
+          <t>UNIQUEID</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4541,27 +4543,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>TYPE</t>
+          <t>UNIQUEID</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>TYPE</t>
+          <t>UNIQUEID</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0x70 (type=combo, length=3, startBit=5)</t>
+          <t>0xF4 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0x70 (type=combo, length=3, startBit=5)</t>
+          <t>0xCC (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0x70 (type=combo, length=3, startBit=5)</t>
+          <t>0xCC (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4570,7 +4572,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>UNIQUEID</t>
+          <t>UNIQUESIGNATUREID</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4580,27 +4582,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>UNIQUEID</t>
+          <t>UNIQUESIGNATUREID</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>UNIQUEID</t>
+          <t>UNIQUESIGNATUREID</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0xF4 (type=number, length=16, startBit=0)</t>
+          <t>0x54 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0xCC (type=number, length=16, startBit=0)</t>
+          <t>0x54 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0xCC (type=number, length=16, startBit=0)</t>
+          <t>0x54 (type=number, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -4609,7 +4611,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>UNIQUESIGNATUREID</t>
+          <t>Used Retirement Grace</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4619,36 +4621,28 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>UNIQUESIGNATUREID</t>
+          <t>USEDRETIREMENTGRACE</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>UNIQUESIGNATUREID</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0x54 (type=number, length=32, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>0x54 (type=number, length=32, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>0x54 (type=number, length=32, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
+          <t>Used Retirement Grace</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>0x362 (type=Integer, length=1, startBit=0)</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Used Retirement Grace</t>
+          <t>VOICETYPE</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4658,28 +4652,28 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>USEDRETIREMENTGRACE</t>
+          <t>VOICETYPE</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Used Retirement Grace</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+          <t>VOICETYPE</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0x317 (type=combo, length=2, startBit=0)</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>0x362 (type=Integer, length=1, startBit=0)</t>
-        </is>
-      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>VOICETYPE</t>
+          <t>WAS_DRAFTED</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4689,28 +4683,36 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>VOICETYPE</t>
+          <t>WASDRAFTED</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>VOICETYPE</t>
+          <t>WAS_DRAFTED</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0x317 (type=combo, length=2, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+          <t>0x71 (type=combo, length=1, startBit=4)</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0x71 (type=combo, length=1, startBit=4)</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0x71 (type=combo, length=1, startBit=4)</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>WAS_DRAFTED</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4720,36 +4722,44 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>WASDRAFTED</t>
+          <t>WEIGHT</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>WAS_DRAFTED</t>
+          <t>WEIGHT_LBS, Weight</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0x71 (type=combo, length=1, startBit=4)</t>
+          <t>0x58 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0x71 (type=combo, length=1, startBit=4)</t>
+          <t>0x58 (type=float, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0x71 (type=combo, length=1, startBit=4)</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
+          <t>0x58 (type=float, length=32, startBit=0)</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>0xf8 (type=Float, length=16, requiresDereference=True, dereferenceAddress=120)</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>0x100 (type=Float, length=32)</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Wingspan</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4759,44 +4769,44 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>WEIGHT</t>
+          <t>WINGSPAN</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>WEIGHT_LBS, Weight</t>
+          <t>WINGSPAN_CM, Wingspan</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0x58 (type=float, length=32, startBit=0)</t>
+          <t>0x90 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0x58 (type=float, length=32, startBit=0)</t>
+          <t>0x88 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>0x58 (type=float, length=32, startBit=0)</t>
+          <t>0x88 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0xf8 (type=Float, length=16, requiresDereference=True, dereferenceAddress=120)</t>
+          <t>0x2 (type=Integer, length=16, requiresDereference=True, dereferenceAddress=120)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>0x100 (type=Float, length=32)</t>
+          <t>0x2 (type=Integer, length=16, requiresDereference=True, dereferenceAddress=120)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Wingspan</t>
+          <t>Years Pro</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4806,78 +4816,31 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>WINGSPAN</t>
+          <t>YEARSPRO</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>WINGSPAN_CM, Wingspan</t>
+          <t>YEARSPRO, Years Pro</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0x90 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
+          <t>0x356 (type=bit, length=5, startBit=1)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0x88 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
+          <t>0x352 (type=bit, length=5, startBit=5)</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0x88 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>0x2 (type=Integer, length=16, requiresDereference=True, dereferenceAddress=120)</t>
-        </is>
-      </c>
+          <t>0x352 (type=bit, length=5, startBit=5)</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
-        <is>
-          <t>0x2 (type=Integer, length=16, requiresDereference=True, dereferenceAddress=120)</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Years Pro</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Vitals</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>YEARSPRO</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>YEARSPRO, Years Pro</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>0x356 (type=bit, length=5, startBit=1)</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>0x352 (type=bit, length=5, startBit=5)</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>0x352 (type=bit, length=5, startBit=5)</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr">
         <is>
           <t>0x39E (type=Integer, length=5, startBit=1)</t>
         </is>
@@ -10117,665 +10080,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Normalized Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Variant Names</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2K22_Offsets.json</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2K23_Offsets.json</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2K24_Offsets.json</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2k25_offsets.json</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2k26_offsets.json</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Retired Numbers Pointer</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Team Pointers</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>RETIREDNUMBERSPOINTER</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Retired Numbers Pointer</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0xFF0 (type=Pointer, length=64)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Normalized Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Variant Names</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2K22_Offsets.json</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2K23_Offsets.json</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2K24_Offsets.json</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2k25_offsets.json</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2k26_offsets.json</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FIRSTNAME</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0x38 (type=String, length=16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Jersey Number</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>JERSEYNUMBER</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Jersey Number</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0x10 (type=Integer, length=16, startBit=16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LASTNAME</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0x4C (type=String, length=16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Next Entry Pointer</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>NEXTENTRYPOINTER</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Next Entry Pointer</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0x0 (type=Pointer, length=64)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Player Signature</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PLAYERSIGNATURE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Player Signature</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0x10 (type=Integer, length=32)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Retirement Year</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>RETIREMENTYEAR</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Retirement Year</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0x14 (type=Integer, length=16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Team Back Pointer</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TEAMBACKPOINTER</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Team Back Pointer</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0x8 (type=Pointer, length=64)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Unknown 16</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>UNKNOWN16</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Unknown 16</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0x16 (type=Integer, length=16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Years Block A - 1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>YEARSBLOCKA1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Years Block A - 1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0x18 (type=Integer, length=16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Years Block A - 2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>YEARSBLOCKA2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Years Block A - 2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0x1A (type=Integer, length=16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Years Block A - 3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>YEARSBLOCKA3POINT</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Years Block A - 3</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0x1C (type=Integer, length=16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Years Block A - 4</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>YEARSBLOCKA4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Years Block A - 4</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0x1E (type=Integer, length=16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Years Block B - 1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>YEARSBLOCKB1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Years Block B - 1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0x20 (type=Integer, length=16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Years Block B - 2</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>YEARSBLOCKB2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Years Block B - 2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0x22 (type=Integer, length=16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Years Block B - 3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>YEARSBLOCKB3POINT</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Years Block B - 3</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0x24 (type=Integer, length=16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Years Block B - 4</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Team Retired Entry</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>YEARSBLOCKB4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Years Block B - 4</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0x26 (type=Integer, length=16)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11115,7 +10419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14430,7 +13734,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alley-Oop</t>
+          <t>Alley Oop Pass</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -14806,7 +14110,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dribble Half Spin</t>
+          <t>Drive</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -14816,44 +14120,44 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DRIBBLESPIN</t>
+          <t>DRIVE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DRIVE_SPIN_TENDENCY, DRIVING_HALF_SPIN_TENDENCY, Dribble Half Spin, Dribble Spin, Driving Half Spin, Driving Spin</t>
+          <t>DRIVE_TENDENCY, Drive</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x491 (type=slider, length=8, startBit=0)</t>
+          <t>0x483 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0x495 (type=slider, length=8, startBit=0)</t>
+          <t>0x487 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0x495 (type=slider, length=8, startBit=0)</t>
+          <t>0x487 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0x400 (type=Integer, length=7, startBit=7)</t>
+          <t>0x3f2 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0x450 (type=Integer, length=7, startBit=0)</t>
+          <t>0x441 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Drive</t>
+          <t>Drive Pull Up 3pt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -14863,44 +14167,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DRIVE</t>
+          <t>DRIVEPULLUP3POINT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DRIVE_TENDENCY, Drive</t>
+          <t>DRIVE_PULL_UP_THREE_TENDENCY, Drive Pull Up 3pt, Drive Pull Up Three</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x483 (type=slider, length=8, startBit=0)</t>
+          <t>0x480 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0x487 (type=slider, length=8, startBit=0)</t>
+          <t>0x484 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0x487 (type=slider, length=8, startBit=0)</t>
+          <t>0x484 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0x3f2 (type=Integer, length=7, startBit=5)</t>
+          <t>0x3f0 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0x441 (type=Integer, length=7, startBit=6)</t>
+          <t>0x43E (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Drive Pull Up 3pt</t>
+          <t>Drive Pull Up Mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -14910,44 +14214,44 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DRIVEPULLUP3POINT</t>
+          <t>DRIVEPULLUPMID</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DRIVE_PULL_UP_THREE_TENDENCY, Drive Pull Up 3pt, Drive Pull Up Three</t>
+          <t>DRIVE_PULL_UP_MID-RANGE_TENDENCY, Drive Pull Up Mid</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x480 (type=slider, length=8, startBit=0)</t>
+          <t>0x481 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0x484 (type=slider, length=8, startBit=0)</t>
+          <t>0x485 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0x484 (type=slider, length=8, startBit=0)</t>
+          <t>0x485 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0x3f0 (type=Integer, length=7, startBit=0)</t>
+          <t>0x3f0 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0x43E (type=Integer, length=7, startBit=5)</t>
+          <t>0x440 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Drive Pull Up Mid</t>
+          <t>Drive Right</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -14957,44 +14261,44 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DRIVEPULLUPMID</t>
+          <t>DRIVERIGHT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DRIVE_PULL_UP_MID-RANGE_TENDENCY, Drive Pull Up Mid</t>
+          <t>DRIVE_RIGHT_TENDENCY, Drive Right</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x481 (type=slider, length=8, startBit=0)</t>
+          <t>0x486 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0x485 (type=slider, length=8, startBit=0)</t>
+          <t>0x48A (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0x485 (type=slider, length=8, startBit=0)</t>
+          <t>0x48A (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0x3f0 (type=Integer, length=7, startBit=7)</t>
+          <t>0x3f5 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0x440 (type=Integer, length=7, startBit=0)</t>
+          <t>0x444 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Drive Right</t>
+          <t>Driving Behind The Back</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -15004,44 +14308,44 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DRIVERIGHT</t>
+          <t>DRIVINGBEHINDTHEBACK</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DRIVE_RIGHT_TENDENCY, Drive Right</t>
+          <t>DRIVING_BEHIND_THE_BACK_TENDENCY, Dribble Behind The Back, Driving Behind The Back</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x486 (type=slider, length=8, startBit=0)</t>
+          <t>0x493 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0x48A (type=slider, length=8, startBit=0)</t>
+          <t>0x497 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0x48A (type=slider, length=8, startBit=0)</t>
+          <t>0x497 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0x3f5 (type=Integer, length=7, startBit=6)</t>
+          <t>0x402 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0x444 (type=Integer, length=7, startBit=7)</t>
+          <t>0x451 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Driving Behind The Back</t>
+          <t>Driving Double Crossover</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -15051,44 +14355,44 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DRIVINGBEHINDTHEBACK</t>
+          <t>DRIBBLECROSSOVER</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DRIVING_BEHIND_THE_BACK_TENDENCY, Dribble Behind The Back, Driving Behind The Back</t>
+          <t>DRIVE_CROSSOVER_TENDENCY, DRIVING_DOUBLE_CROSSOVER_TENDENCY, Dribble Crossover, Dribble Double Crossover, Driving Crossover, Driving Double Crossover</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x493 (type=slider, length=8, startBit=0)</t>
+          <t>0x492 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0x497 (type=slider, length=8, startBit=0)</t>
+          <t>0x496 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0x497 (type=slider, length=8, startBit=0)</t>
+          <t>0x496 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0x402 (type=Integer, length=7, startBit=5)</t>
+          <t>0x401 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0x451 (type=Integer, length=7, startBit=6)</t>
+          <t>0x450 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Driving Crossover</t>
+          <t>Driving Dribble Hesitation</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -15098,44 +14402,44 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DRIBBLECROSSOVER</t>
+          <t>DRIVINGDRIBBLEHESITATION</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DRIVE_CROSSOVER_TENDENCY, DRIVING_DOUBLE_CROSSOVER_TENDENCY, Dribble Crossover, Dribble Double Crossover, Driving Crossover, Driving Double Crossover</t>
+          <t>DRIVING_DRIBBLE_HESITATION_TENDENCY, Driving Dribble Hesitation</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x492 (type=slider, length=8, startBit=0)</t>
+          <t>0x494 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0x496 (type=slider, length=8, startBit=0)</t>
+          <t>0x498 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0x496 (type=slider, length=8, startBit=0)</t>
+          <t>0x498 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0x401 (type=Integer, length=7, startBit=6)</t>
+          <t>0x404 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0x450 (type=Integer, length=7, startBit=7)</t>
+          <t>0x452 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Driving Dribble Hesitation</t>
+          <t>Driving Dunk Tendency</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -15145,44 +14449,44 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DRIVINGDRIBBLEHESITATION</t>
+          <t>DRIVINGDUNK</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DRIVING_DRIBBLE_HESITATION_TENDENCY, Driving Dribble Hesitation</t>
+          <t>DRIVING_DUNK_TENDENCY, Driving Dunk Tendency</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x494 (type=slider, length=8, startBit=0)</t>
+          <t>0x45B (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0x498 (type=slider, length=8, startBit=0)</t>
+          <t>0x45F (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0x498 (type=slider, length=8, startBit=0)</t>
+          <t>0x45F (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0x404 (type=Integer, length=7, startBit=0)</t>
+          <t>0x3ca (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0x452 (type=Integer, length=7, startBit=5)</t>
+          <t>0x419 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Driving Dunk Tendency</t>
+          <t>Driving Half Spin</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -15192,37 +14496,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DRIVINGDUNK</t>
+          <t>DRIBBLESPIN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DRIVING_DUNK_TENDENCY, Driving Dunk Tendency</t>
+          <t>DRIVE_SPIN_TENDENCY, DRIVING_HALF_SPIN_TENDENCY, Dribble Half Spin, Dribble Spin, Driving Half Spin, Driving Spin</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x45B (type=slider, length=8, startBit=0)</t>
+          <t>0x491 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0x45F (type=slider, length=8, startBit=0)</t>
+          <t>0x495 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0x45F (type=slider, length=8, startBit=0)</t>
+          <t>0x495 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0x3ca (type=Integer, length=7, startBit=5)</t>
+          <t>0x400 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0x419 (type=Integer, length=7, startBit=6)</t>
+          <t>0x450 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
     </row>
@@ -17485,7 +16789,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Shot Mid Left</t>
+          <t>Shot Mid</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -17495,44 +16799,44 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>LEFTMIDSHOT</t>
+          <t>MIDSHOT</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SHOT_MID_LEFT-CENTER_TENDENCY, SHOT_MID_LEFT_TENDENCY, Shot Mid Left, Shot Mid Left Center</t>
+          <t>SHOT_MID-RANGE_TENDENCY, SPOT_UP_SHOT_MID-RANGE_TENDENCY, Shot Mid, Spot Up Shot Mid</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0x46E (type=slider, length=8, startBit=0)</t>
+          <t>0x46B (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0x472 (type=slider, length=8, startBit=0)</t>
+          <t>0x46F (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0x472 (type=slider, length=8, startBit=0)</t>
+          <t>0x46F (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0x3dd (type=Integer, length=7, startBit=6)</t>
+          <t>0x3da (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0x42C (type=Integer, length=7, startBit=7)</t>
+          <t>0x429 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Shot Mid Right</t>
+          <t>Shot Mid Center</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -17542,44 +16846,44 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MIDRIGHTSHOT</t>
+          <t>CENTERMIDSHOT</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SHOT_MID_RIGHT_TENDENCY, Shot Mid Right</t>
+          <t>SHOT_MID_CENTER_TENDENCY, SHOT_MID_RIGHT-CENTER_TENDENCY, Shot Mid Center, Shot Mid Right Center</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0x471 (type=slider, length=8, startBit=0)</t>
+          <t>0x470 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0x475 (type=slider, length=8, startBit=0)</t>
+          <t>0x474 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0x475 (type=slider, length=8, startBit=0)</t>
+          <t>0x474 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0x3e0 (type=Integer, length=7, startBit=7)</t>
+          <t>0x3e0 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0x430 (type=Integer, length=7, startBit=0)</t>
+          <t>0x42E (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Shot Mid Right Center</t>
+          <t>Shot Mid Left</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -17589,44 +16893,44 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CENTERMIDSHOT</t>
+          <t>LEFTMIDSHOT</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SHOT_MID_CENTER_TENDENCY, SHOT_MID_RIGHT-CENTER_TENDENCY, Shot Mid Center, Shot Mid Right Center</t>
+          <t>SHOT_MID_LEFT-CENTER_TENDENCY, SHOT_MID_LEFT_TENDENCY, Shot Mid Left, Shot Mid Left Center</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0x470 (type=slider, length=8, startBit=0)</t>
+          <t>0x46E (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0x474 (type=slider, length=8, startBit=0)</t>
+          <t>0x472 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0x474 (type=slider, length=8, startBit=0)</t>
+          <t>0x472 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0x3e0 (type=Integer, length=7, startBit=0)</t>
+          <t>0x3dd (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0x42E (type=Integer, length=7, startBit=5)</t>
+          <t>0x42C (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Shot Three Center</t>
+          <t>Shot Mid Right</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -17636,44 +16940,44 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3POINTCENTERSHOT</t>
+          <t>MIDRIGHTSHOT</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SHOT_THREE_CENTER_TENDENCY, SHOT_THREE_RIGHT-CENTER_TENDENCY, Shot 3pt Center, Shot 3pt Right Center, Shot Three Center, Shot Three Right Center</t>
+          <t>SHOT_MID_RIGHT_TENDENCY, Shot Mid Right</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0x478 (type=slider, length=8, startBit=0)</t>
+          <t>0x471 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0x47C (type=slider, length=8, startBit=0)</t>
+          <t>0x475 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0x47C (type=slider, length=8, startBit=0)</t>
+          <t>0x475 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0x3e8 (type=Integer, length=7, startBit=0)</t>
+          <t>0x3e0 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0x436 (type=Integer, length=7, startBit=5)</t>
+          <t>0x430 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Shot Under Basket</t>
+          <t>Shot Three</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -17683,44 +16987,44 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BASKETUNDERSHOT</t>
+          <t>3POINTSHOT</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SHOT_UNDER_BASKET_TENDENCY, Shot Under Basket</t>
+          <t>SHOT_THREE_TENDENCY, SPOT_UP_SHOT_THREE_TENDENCY, Shot 3pt, Shot Three, Spot Up Shot 3pt, Spot Up Shot Three</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0x465 (type=slider, length=8, startBit=0)</t>
+          <t>0x473 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0x469 (type=slider, length=8, startBit=0)</t>
+          <t>0x477 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0x469 (type=slider, length=8, startBit=0)</t>
+          <t>0x477 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0x3d4 (type=Integer, length=7, startBit=7)</t>
+          <t>0x3e2 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0x424 (type=Integer, length=7, startBit=0)</t>
+          <t>0x431 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Spin Jumper Tendency</t>
+          <t>Shot Three Right Center</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -17730,44 +17034,44 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SPINJUMPER</t>
+          <t>3POINTCENTERSHOT</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SPIN_JUMPER_TENDENCY, Spin Jumper, Spin Jumper Tendency</t>
+          <t>SHOT_THREE_CENTER_TENDENCY, SHOT_THREE_RIGHT-CENTER_TENDENCY, Shot 3pt Center, Shot 3pt Right Center, Shot Three Center, Shot Three Right Center</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0x47E (type=slider, length=8, startBit=0)</t>
+          <t>0x478 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0x482 (type=slider, length=8, startBit=0)</t>
+          <t>0x47C (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0x482 (type=slider, length=8, startBit=0)</t>
+          <t>0x47C (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0x3ed (type=Integer, length=7, startBit=6)</t>
+          <t>0x3e8 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0x43C (type=Integer, length=7, startBit=7)</t>
+          <t>0x436 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Spin Layup</t>
+          <t>Shot Under Basket</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -17777,44 +17081,44 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SPINLAYUP</t>
+          <t>BASKETUNDERSHOT</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SPIN_LAYUP_TENDENCY, Spin Layup</t>
+          <t>SHOT_UNDER_BASKET_TENDENCY, Shot Under Basket</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0x460 (type=slider, length=8, startBit=0)</t>
+          <t>0x465 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0x464 (type=slider, length=8, startBit=0)</t>
+          <t>0x469 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0x464 (type=slider, length=8, startBit=0)</t>
+          <t>0x469 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0x3d0 (type=Integer, length=7, startBit=0)</t>
+          <t>0x3d4 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0x41E (type=Integer, length=7, startBit=5)</t>
+          <t>0x424 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Spot Up Drive</t>
+          <t>Spin Jumper Tendency</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -17824,44 +17128,44 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SPOTUPDRIVE</t>
+          <t>SPINJUMPER</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SPOT_UP_DRIVE_TENDENCY, Spot Up Drive</t>
+          <t>SPIN_JUMPER_TENDENCY, Spin Jumper, Spin Jumper Tendency</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0x484 (type=slider, length=8, startBit=0)</t>
+          <t>0x47E (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0x488 (type=slider, length=8, startBit=0)</t>
+          <t>0x482 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0x488 (type=slider, length=8, startBit=0)</t>
+          <t>0x482 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0x3f4 (type=Integer, length=7, startBit=0)</t>
+          <t>0x3ed (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0x442 (type=Integer, length=7, startBit=5)</t>
+          <t>0x43C (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Spot Up Shot Mid</t>
+          <t>Spin Layup</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -17871,44 +17175,44 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MIDSHOT</t>
+          <t>SPINLAYUP</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SHOT_MID-RANGE_TENDENCY, SPOT_UP_SHOT_MID-RANGE_TENDENCY, Shot Mid, Spot Up Shot Mid</t>
+          <t>SPIN_LAYUP_TENDENCY, Spin Layup</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0x46B (type=slider, length=8, startBit=0)</t>
+          <t>0x460 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0x46F (type=slider, length=8, startBit=0)</t>
+          <t>0x464 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0x46F (type=slider, length=8, startBit=0)</t>
+          <t>0x464 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0x3da (type=Integer, length=7, startBit=5)</t>
+          <t>0x3d0 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0x429 (type=Integer, length=7, startBit=6)</t>
+          <t>0x41E (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Spot Up Shot Three</t>
+          <t>Spot Up Drive</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -17918,37 +17222,37 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3POINTSHOT</t>
+          <t>SPOTUPDRIVE</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SHOT_THREE_TENDENCY, SPOT_UP_SHOT_THREE_TENDENCY, Shot 3pt, Shot Three, Spot Up Shot 3pt, Spot Up Shot Three</t>
+          <t>SPOT_UP_DRIVE_TENDENCY, Spot Up Drive</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0x473 (type=slider, length=8, startBit=0)</t>
+          <t>0x484 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0x477 (type=slider, length=8, startBit=0)</t>
+          <t>0x488 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0x477 (type=slider, length=8, startBit=0)</t>
+          <t>0x488 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0x3e2 (type=Integer, length=7, startBit=5)</t>
+          <t>0x3f4 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0x431 (type=Integer, length=7, startBit=6)</t>
+          <t>0x442 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
     </row>
@@ -25364,7 +24668,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Left Arm</t>
+          <t>Left Arm Away Color</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -25374,44 +24678,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LEFTARM</t>
+          <t>LEFTARMAWAYCOLOR</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LEFT_ARM, LEFT_ARM_FREQUENCY, Left Arm, Left Arm Frequency</t>
+          <t>LEFT_ARM_AWAY_COLOR, Left Arm Away Color, Left Arm Item Away Color</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x34E (type=combo, length=3, startBit=5)</t>
+          <t>0x156 (type=combo, length=3, startBit=2)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0x34A (type=combo, length=3, startBit=5)</t>
+          <t>0x132 (type=combo, length=3, startBit=2)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0x34A (type=combo, length=3, startBit=5)</t>
+          <t>0x132 (type=combo, length=3, startBit=2)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0x346 (type=Integer, length=3, startBit=5)</t>
+          <t>0x181 (type=Integer, length=3, startBit=6)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0x396 (type=Integer, length=3, startBit=5)</t>
+          <t>0x189 (type=Integer, length=3, startBit=6)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Left Arm Item Away Color</t>
+          <t>Left Arm Frequency</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -25421,37 +24725,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LEFTARMAWAYCOLOR</t>
+          <t>LEFTARM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LEFT_ARM_AWAY_COLOR, Left Arm Away Color, Left Arm Item Away Color</t>
+          <t>LEFT_ARM, LEFT_ARM_FREQUENCY, Left Arm, Left Arm Frequency</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x156 (type=combo, length=3, startBit=2)</t>
+          <t>0x34E (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0x132 (type=combo, length=3, startBit=2)</t>
+          <t>0x34A (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0x132 (type=combo, length=3, startBit=2)</t>
+          <t>0x34A (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0x181 (type=Integer, length=3, startBit=6)</t>
+          <t>0x346 (type=Integer, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0x189 (type=Integer, length=3, startBit=6)</t>
+          <t>0x396 (type=Integer, length=3, startBit=5)</t>
         </is>
       </c>
     </row>
@@ -25505,7 +24809,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Left Elbow</t>
+          <t>Left Elbow Away Color</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -25515,44 +24819,44 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LEFTELBOW</t>
+          <t>LEFTELBOWAWAYCOLOR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LEFT_ELBOW, LEFT_ELBOW_FREQUENCY, Left Elbow, Left Elbow Frequency</t>
+          <t>LEFT_ELBOW_AWAY_COLOR, Left Elbow Away Color, Left Elbow Item Away Color</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x34D (type=combo, length=3, startBit=7)</t>
+          <t>0x158 (type=combo, length=3, startBit=7)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0x349 (type=combo, length=3, startBit=7)</t>
+          <t>0x134 (type=combo, length=3, startBit=7)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0x349 (type=combo, length=3, startBit=7)</t>
+          <t>0x134 (type=combo, length=3, startBit=7)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0x345 (type=Integer, length=3, startBit=7)</t>
+          <t>0x184 (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0x395 (type=Integer, length=3, startBit=7)</t>
+          <t>0x18C (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Left Elbow Home Color</t>
+          <t>Left Elbow Frequency</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -25562,44 +24866,44 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LEFTELBOWHOMECOLOR</t>
+          <t>LEFTELBOW</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LEFT_ELBOW_HOME_COLOR, Left Elbow Home Color, Left Elbow Item Home Color</t>
+          <t>LEFT_ELBOW, LEFT_ELBOW_FREQUENCY, Left Elbow, Left Elbow Frequency</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x158 (type=combo, length=3, startBit=4)</t>
+          <t>0x34D (type=combo, length=3, startBit=7)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0x134 (type=combo, length=3, startBit=4)</t>
+          <t>0x349 (type=combo, length=3, startBit=7)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0x134 (type=combo, length=3, startBit=4)</t>
+          <t>0x349 (type=combo, length=3, startBit=7)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0x184 (type=Integer, length=3, startBit=0)</t>
+          <t>0x345 (type=Integer, length=3, startBit=7)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0x18C (type=Integer, length=3, startBit=0)</t>
+          <t>0x395 (type=Integer, length=3, startBit=7)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Left Elbow Item Away Color</t>
+          <t>Left Elbow Item Home Color</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -25609,37 +24913,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LEFTELBOWAWAYCOLOR</t>
+          <t>LEFTELBOWHOMECOLOR</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LEFT_ELBOW_AWAY_COLOR, Left Elbow Away Color, Left Elbow Item Away Color</t>
+          <t>LEFT_ELBOW_HOME_COLOR, Left Elbow Home Color, Left Elbow Item Home Color</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x158 (type=combo, length=3, startBit=7)</t>
+          <t>0x158 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0x134 (type=combo, length=3, startBit=7)</t>
+          <t>0x134 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0x134 (type=combo, length=3, startBit=7)</t>
+          <t>0x134 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0x184 (type=Integer, length=3, startBit=3)</t>
+          <t>0x184 (type=Integer, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0x18C (type=Integer, length=3, startBit=3)</t>
+          <t>0x18C (type=Integer, length=3, startBit=0)</t>
         </is>
       </c>
     </row>
@@ -25881,7 +25185,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Left Knee Item Home Color</t>
+          <t>Left Knee Home Color</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -25928,7 +25232,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Left Leg Frequency</t>
+          <t>Left Leg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -25975,7 +25279,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Left Leg Home Color</t>
+          <t>Left Leg Away Color</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -25985,44 +25289,44 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LEFTLEGHOMECOLOR</t>
+          <t>LEFTLEGAWAYCOLOR</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LEFT_LEG_HOME_COLOR, Left Leg Home Color, Left Leg Item Home Color</t>
+          <t>LEFT_LEG_AWAY_COLOR, Left Leg Away Color, Left Leg Item Away Color</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x162 (type=combo, length=3, startBit=0)</t>
+          <t>0x162 (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0x13E (type=combo, length=3, startBit=0)</t>
+          <t>0x13E (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0x13E (type=combo, length=3, startBit=0)</t>
+          <t>0x13E (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0x18e (type=Integer, length=3, startBit=0)</t>
+          <t>0x18e (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0x196 (type=Integer, length=3, startBit=0)</t>
+          <t>0x196 (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Left Leg Item Away Color</t>
+          <t>Left Leg Item Home Color</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -26032,44 +25336,44 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LEFTLEGAWAYCOLOR</t>
+          <t>LEFTLEGHOMECOLOR</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LEFT_LEG_AWAY_COLOR, Left Leg Away Color, Left Leg Item Away Color</t>
+          <t>LEFT_LEG_HOME_COLOR, Left Leg Home Color, Left Leg Item Home Color</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x162 (type=combo, length=3, startBit=3)</t>
+          <t>0x162 (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0x13E (type=combo, length=3, startBit=3)</t>
+          <t>0x13E (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0x13E (type=combo, length=3, startBit=3)</t>
+          <t>0x13E (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0x18e (type=Integer, length=3, startBit=3)</t>
+          <t>0x18e (type=Integer, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0x196 (type=Integer, length=3, startBit=3)</t>
+          <t>0x196 (type=Integer, length=3, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Left Wrist</t>
+          <t>Left Wrist Away Color</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -26079,44 +25383,44 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LEFTWRIST</t>
+          <t>LEFTWRISTAWAYCOLOR</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LEFT_WRIST, LEFT_WRIST_FREQUENCY, Left Wrist, Left Wrist Frequency</t>
+          <t>LEFT_WRIST_AWAY_COLOR, Left Wrist Away Color, Left Wrist Item Away Color</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x34D (type=combo, length=3, startBit=1)</t>
+          <t>0x15B (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0x349 (type=combo, length=3, startBit=1)</t>
+          <t>0x137 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0x349 (type=combo, length=3, startBit=1)</t>
+          <t>0x137 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0x345 (type=Integer, length=3, startBit=1)</t>
+          <t>0x186 (type=Integer, length=5, startBit=6)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0x395 (type=Integer, length=3, startBit=1)</t>
+          <t>0x18E (type=Integer, length=5, startBit=6)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Left Wrist Away Color</t>
+          <t>Left Wrist Frequency</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -26126,37 +25430,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LEFTWRISTAWAYCOLOR</t>
+          <t>LEFTWRIST</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LEFT_WRIST_AWAY_COLOR, Left Wrist Away Color, Left Wrist Item Away Color</t>
+          <t>LEFT_WRIST, LEFT_WRIST_FREQUENCY, Left Wrist, Left Wrist Frequency</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x15B (type=combo, length=4, startBit=4)</t>
+          <t>0x34D (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0x137 (type=combo, length=4, startBit=4)</t>
+          <t>0x349 (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0x137 (type=combo, length=4, startBit=4)</t>
+          <t>0x349 (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0x186 (type=Integer, length=5, startBit=6)</t>
+          <t>0x345 (type=Integer, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0x18E (type=Integer, length=5, startBit=6)</t>
+          <t>0x395 (type=Integer, length=3, startBit=1)</t>
         </is>
       </c>
     </row>
@@ -26257,7 +25561,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Right Ankle</t>
+          <t>Right Ankle Away Color</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -26267,44 +25571,44 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RIGHTANKLE</t>
+          <t>RIGHTANKLEAWAYCOLOR</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RIGHT_ANKLE, RIGHT_ANKLE_FREQUENCY, Right Ankle, Right Ankle Frequency</t>
+          <t>RIGHT_ANKLE_AWAY_COLOR, Right Ankle Away Color, Right Ankle Item Away Color</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x352 (type=combo, length=3, startBit=1)</t>
+          <t>0x167 (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0x34E (type=combo, length=3, startBit=1)</t>
+          <t>0x143 (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0x34E (type=combo, length=3, startBit=1)</t>
+          <t>0x143 (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0x34a (type=Integer, length=3, startBit=1)</t>
+          <t>0x193 (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0x39A (type=Integer, length=3, startBit=1)</t>
+          <t>0x19B (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Right Ankle Away Color</t>
+          <t>Right Ankle Frequency</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -26314,44 +25618,44 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RIGHTANKLEAWAYCOLOR</t>
+          <t>RIGHTANKLE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RIGHT_ANKLE_AWAY_COLOR, Right Ankle Away Color, Right Ankle Item Away Color</t>
+          <t>RIGHT_ANKLE, RIGHT_ANKLE_FREQUENCY, Right Ankle, Right Ankle Frequency</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x167 (type=combo, length=3, startBit=3)</t>
+          <t>0x352 (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0x143 (type=combo, length=3, startBit=3)</t>
+          <t>0x34E (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0x143 (type=combo, length=3, startBit=3)</t>
+          <t>0x34E (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0x193 (type=Integer, length=3, startBit=3)</t>
+          <t>0x34a (type=Integer, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0x19B (type=Integer, length=3, startBit=3)</t>
+          <t>0x39A (type=Integer, length=3, startBit=1)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Right Ankle Home Color</t>
+          <t>Right Ankle Item Home Color</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -26445,7 +25749,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Right Arm Item Away Color</t>
+          <t>Right Arm Away Color</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -26539,7 +25843,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Right Elbow</t>
+          <t>Right Elbow Frequency</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -26586,7 +25890,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Right Elbow Away Color</t>
+          <t>Right Elbow Item Away Color</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -26727,7 +26031,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Right Fingers Home Color</t>
+          <t>Right Fingers Item Away Color</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -26737,44 +26041,44 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RIGHTFINGERSHOMECOLOR</t>
+          <t>RIGHTFINGERSAWAYCOLOR</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RIGHT_FINGERS_HOME_COLOR, Right Fingers Home Color, Right Fingers Item Home Color</t>
+          <t>RIGHT_FINGERS_AWAY_COLOR, Right Fingers Away Color, Right Fingers Item Away Color</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0x160 (type=combo, length=3, startBit=6)</t>
+          <t>0x161 (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0x13C (type=combo, length=3, startBit=6)</t>
+          <t>0x13D (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0x13C (type=combo, length=3, startBit=6)</t>
+          <t>0x13D (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0x18c (type=Integer, length=3, startBit=6)</t>
+          <t>0x18d (type=Integer, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0x194 (type=Integer, length=3, startBit=6)</t>
+          <t>0x195 (type=Integer, length=3, startBit=1)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Right Fingers Item Away Color</t>
+          <t>Right Fingers Item Home Color</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -26784,37 +26088,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RIGHTFINGERSAWAYCOLOR</t>
+          <t>RIGHTFINGERSHOMECOLOR</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RIGHT_FINGERS_AWAY_COLOR, Right Fingers Away Color, Right Fingers Item Away Color</t>
+          <t>RIGHT_FINGERS_HOME_COLOR, Right Fingers Home Color, Right Fingers Item Home Color</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0x161 (type=combo, length=3, startBit=1)</t>
+          <t>0x160 (type=combo, length=3, startBit=6)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0x13D (type=combo, length=3, startBit=1)</t>
+          <t>0x13C (type=combo, length=3, startBit=6)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0x13D (type=combo, length=3, startBit=1)</t>
+          <t>0x13C (type=combo, length=3, startBit=6)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0x18d (type=Integer, length=3, startBit=1)</t>
+          <t>0x18c (type=Integer, length=3, startBit=6)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0x195 (type=Integer, length=3, startBit=1)</t>
+          <t>0x194 (type=Integer, length=3, startBit=6)</t>
         </is>
       </c>
     </row>
@@ -26868,7 +26172,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Right Knee Away Color</t>
+          <t>Right Knee Item Away Color</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -26915,7 +26219,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Right Knee Home Color</t>
+          <t>Right Knee Item Home Color</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -26962,7 +26266,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Right Leg Away Color</t>
+          <t>Right Leg</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -26972,44 +26276,44 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>RIGHTLEGAWAYCOLOR</t>
+          <t>RIGHTLEG</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RIGHT_LEG_AWAY_COLOR, Right Leg Away Color, Right Leg Item Away Color</t>
+          <t>RIGHT_LEG, RIGHT_LEG_FREQUENCY, Right Leg, Right Leg Frequency</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0x163 (type=combo, length=3, startBit=5)</t>
+          <t>0x351 (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0x13F (type=combo, length=3, startBit=5)</t>
+          <t>0x34D (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0x13F (type=combo, length=3, startBit=5)</t>
+          <t>0x34D (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0x18f (type=Integer, length=3, startBit=5)</t>
+          <t>0x349 (type=Integer, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0x197 (type=Integer, length=3, startBit=5)</t>
+          <t>0x399 (type=Integer, length=3, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Right Leg Frequency</t>
+          <t>Right Leg Away Color</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -27019,37 +26323,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>RIGHTLEG</t>
+          <t>RIGHTLEGAWAYCOLOR</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RIGHT_LEG, RIGHT_LEG_FREQUENCY, Right Leg, Right Leg Frequency</t>
+          <t>RIGHT_LEG_AWAY_COLOR, Right Leg Away Color, Right Leg Item Away Color</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0x351 (type=combo, length=3, startBit=0)</t>
+          <t>0x163 (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0x34D (type=combo, length=3, startBit=0)</t>
+          <t>0x13F (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0x34D (type=combo, length=3, startBit=0)</t>
+          <t>0x13F (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0x349 (type=Integer, length=3, startBit=0)</t>
+          <t>0x18f (type=Integer, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0x399 (type=Integer, length=3, startBit=0)</t>
+          <t>0x197 (type=Integer, length=3, startBit=5)</t>
         </is>
       </c>
     </row>
@@ -27150,7 +26454,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Right Wrist Away Color</t>
+          <t>Right Wrist Home Color</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -27160,44 +26464,44 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RIGHTWRISTAWAYCOLOR</t>
+          <t>RIGHTWRISTHOMECOLOR</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RIGHT_WRIST_AWAY_COLOR, Right Wrist Away Color, Right Wrist Item Away Color</t>
+          <t>RIGHT_WRIST_HOME_COLOR, Right Wrist Home Color, Right Wrist Item Home Color</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0x15C (type=combo, length=4, startBit=4)</t>
+          <t>0x15C (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0x138 (type=combo, length=4, startBit=4)</t>
+          <t>0x138 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0x138 (type=combo, length=4, startBit=4)</t>
+          <t>0x138 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0x188 (type=Integer, length=5, startBit=3)</t>
+          <t>0x187 (type=Integer, length=5, startBit=3)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0x190 (type=Integer, length=5, startBit=3)</t>
+          <t>0x18F (type=Integer, length=5, startBit=3)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Right Wrist Home Color</t>
+          <t>Right Wrist Item Away Color</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -27207,37 +26511,37 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RIGHTWRISTHOMECOLOR</t>
+          <t>RIGHTWRISTAWAYCOLOR</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RIGHT_WRIST_HOME_COLOR, Right Wrist Home Color, Right Wrist Item Home Color</t>
+          <t>RIGHT_WRIST_AWAY_COLOR, Right Wrist Away Color, Right Wrist Item Away Color</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0x15C (type=combo, length=4, startBit=0)</t>
+          <t>0x15C (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0x138 (type=combo, length=4, startBit=0)</t>
+          <t>0x138 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0x138 (type=combo, length=4, startBit=0)</t>
+          <t>0x138 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0x187 (type=Integer, length=5, startBit=3)</t>
+          <t>0x188 (type=Integer, length=5, startBit=3)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0x18F (type=Integer, length=5, startBit=3)</t>
+          <t>0x190 (type=Integer, length=5, startBit=3)</t>
         </is>
       </c>
     </row>
@@ -27623,7 +26927,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mid-Range Center</t>
+          <t>Mid Range Left Center</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -27633,44 +26937,44 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIDRANGECENTER</t>
+          <t>MIDRANGELEFT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MID-RANGE_RIGHT_CENTER, MID_CENTER, Mid Range Center, Mid Range Right Center, Mid-Range Center, Mid-Range Right-Center</t>
+          <t>MID-RANGE_LEFT, MID-RANGE_LEFT_CENTER, Mid Range Left, Mid Range Left Center, Mid-Range Left, Mid-Range Left-Center</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x317 (type=combo, length=2, startBit=2)</t>
+          <t>0x327 (type=combo, length=2, startBit=3)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0x313 (type=combo, length=2, startBit=3)</t>
+          <t>0x323 (type=combo, length=2, startBit=3)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0x313 (type=combo, length=2, startBit=3)</t>
+          <t>0x323 (type=combo, length=2, startBit=3)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0x2fa (type=Integer, length=2, startBit=3)</t>
+          <t>0x1b8 (type=Integer, length=2, startBit=4)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0x34A (type=Integer, length=2, startBit=3)</t>
+          <t>0x1C0 (type=Integer, length=2, startBit=4)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mid-Range Left</t>
+          <t>Mid-Range Center</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -27680,37 +26984,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MIDRANGELEFT</t>
+          <t>MIDRANGECENTER</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MID-RANGE_LEFT, MID-RANGE_LEFT_CENTER, Mid Range Left, Mid Range Left Center, Mid-Range Left, Mid-Range Left-Center</t>
+          <t>MID-RANGE_RIGHT_CENTER, MID_CENTER, Mid Range Center, Mid Range Right Center, Mid-Range Center, Mid-Range Right-Center</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x327 (type=combo, length=2, startBit=3)</t>
+          <t>0x317 (type=combo, length=2, startBit=2)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0x323 (type=combo, length=2, startBit=3)</t>
+          <t>0x313 (type=combo, length=2, startBit=3)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0x323 (type=combo, length=2, startBit=3)</t>
+          <t>0x313 (type=combo, length=2, startBit=3)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0x1b8 (type=Integer, length=2, startBit=4)</t>
+          <t>0x2fa (type=Integer, length=2, startBit=3)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0x1C0 (type=Integer, length=2, startBit=4)</t>
+          <t>0x34A (type=Integer, length=2, startBit=3)</t>
         </is>
       </c>
     </row>

--- a/nba2k26_editor/Offsets/Players.xlsx
+++ b/nba2k26_editor/Offsets/Players.xlsx
@@ -13734,7 +13734,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alley Oop Pass</t>
+          <t>Alley Oop</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -14110,7 +14110,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Drive</t>
+          <t>Dribble Half Spin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -14120,44 +14120,44 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DRIVE</t>
+          <t>DRIBBLESPIN</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DRIVE_TENDENCY, Drive</t>
+          <t>DRIVE_SPIN_TENDENCY, DRIVING_HALF_SPIN_TENDENCY, Dribble Half Spin, Dribble Spin, Driving Half Spin, Driving Spin</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x483 (type=slider, length=8, startBit=0)</t>
+          <t>0x491 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0x487 (type=slider, length=8, startBit=0)</t>
+          <t>0x495 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0x487 (type=slider, length=8, startBit=0)</t>
+          <t>0x495 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0x3f2 (type=Integer, length=7, startBit=5)</t>
+          <t>0x400 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0x441 (type=Integer, length=7, startBit=6)</t>
+          <t>0x450 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Drive Pull Up 3pt</t>
+          <t>Drive</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -14167,44 +14167,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DRIVEPULLUP3POINT</t>
+          <t>DRIVE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DRIVE_PULL_UP_THREE_TENDENCY, Drive Pull Up 3pt, Drive Pull Up Three</t>
+          <t>DRIVE_TENDENCY, Drive</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x480 (type=slider, length=8, startBit=0)</t>
+          <t>0x483 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0x484 (type=slider, length=8, startBit=0)</t>
+          <t>0x487 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0x484 (type=slider, length=8, startBit=0)</t>
+          <t>0x487 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0x3f0 (type=Integer, length=7, startBit=0)</t>
+          <t>0x3f2 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0x43E (type=Integer, length=7, startBit=5)</t>
+          <t>0x441 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Drive Pull Up Mid</t>
+          <t>Drive Pull Up 3pt</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -14214,44 +14214,44 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DRIVEPULLUPMID</t>
+          <t>DRIVEPULLUP3POINT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DRIVE_PULL_UP_MID-RANGE_TENDENCY, Drive Pull Up Mid</t>
+          <t>DRIVE_PULL_UP_THREE_TENDENCY, Drive Pull Up 3pt, Drive Pull Up Three</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x481 (type=slider, length=8, startBit=0)</t>
+          <t>0x480 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0x485 (type=slider, length=8, startBit=0)</t>
+          <t>0x484 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0x485 (type=slider, length=8, startBit=0)</t>
+          <t>0x484 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0x3f0 (type=Integer, length=7, startBit=7)</t>
+          <t>0x3f0 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0x440 (type=Integer, length=7, startBit=0)</t>
+          <t>0x43E (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Drive Right</t>
+          <t>Drive Pull Up Mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -14261,44 +14261,44 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DRIVERIGHT</t>
+          <t>DRIVEPULLUPMID</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DRIVE_RIGHT_TENDENCY, Drive Right</t>
+          <t>DRIVE_PULL_UP_MID-RANGE_TENDENCY, Drive Pull Up Mid</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x486 (type=slider, length=8, startBit=0)</t>
+          <t>0x481 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0x48A (type=slider, length=8, startBit=0)</t>
+          <t>0x485 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0x48A (type=slider, length=8, startBit=0)</t>
+          <t>0x485 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0x3f5 (type=Integer, length=7, startBit=6)</t>
+          <t>0x3f0 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0x444 (type=Integer, length=7, startBit=7)</t>
+          <t>0x440 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Driving Behind The Back</t>
+          <t>Drive Right</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -14308,44 +14308,44 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DRIVINGBEHINDTHEBACK</t>
+          <t>DRIVERIGHT</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DRIVING_BEHIND_THE_BACK_TENDENCY, Dribble Behind The Back, Driving Behind The Back</t>
+          <t>DRIVE_RIGHT_TENDENCY, Drive Right</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x493 (type=slider, length=8, startBit=0)</t>
+          <t>0x486 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0x497 (type=slider, length=8, startBit=0)</t>
+          <t>0x48A (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0x497 (type=slider, length=8, startBit=0)</t>
+          <t>0x48A (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0x402 (type=Integer, length=7, startBit=5)</t>
+          <t>0x3f5 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0x451 (type=Integer, length=7, startBit=6)</t>
+          <t>0x444 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Driving Double Crossover</t>
+          <t>Driving Behind The Back</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -14355,44 +14355,44 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DRIBBLECROSSOVER</t>
+          <t>DRIVINGBEHINDTHEBACK</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DRIVE_CROSSOVER_TENDENCY, DRIVING_DOUBLE_CROSSOVER_TENDENCY, Dribble Crossover, Dribble Double Crossover, Driving Crossover, Driving Double Crossover</t>
+          <t>DRIVING_BEHIND_THE_BACK_TENDENCY, Dribble Behind The Back, Driving Behind The Back</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x492 (type=slider, length=8, startBit=0)</t>
+          <t>0x493 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0x496 (type=slider, length=8, startBit=0)</t>
+          <t>0x497 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0x496 (type=slider, length=8, startBit=0)</t>
+          <t>0x497 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0x401 (type=Integer, length=7, startBit=6)</t>
+          <t>0x402 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0x450 (type=Integer, length=7, startBit=7)</t>
+          <t>0x451 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Driving Dribble Hesitation</t>
+          <t>Driving Crossover</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -14402,44 +14402,44 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DRIVINGDRIBBLEHESITATION</t>
+          <t>DRIBBLECROSSOVER</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DRIVING_DRIBBLE_HESITATION_TENDENCY, Driving Dribble Hesitation</t>
+          <t>DRIVE_CROSSOVER_TENDENCY, DRIVING_DOUBLE_CROSSOVER_TENDENCY, Dribble Crossover, Dribble Double Crossover, Driving Crossover, Driving Double Crossover</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x494 (type=slider, length=8, startBit=0)</t>
+          <t>0x492 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0x498 (type=slider, length=8, startBit=0)</t>
+          <t>0x496 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0x498 (type=slider, length=8, startBit=0)</t>
+          <t>0x496 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0x404 (type=Integer, length=7, startBit=0)</t>
+          <t>0x401 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0x452 (type=Integer, length=7, startBit=5)</t>
+          <t>0x450 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Driving Dunk Tendency</t>
+          <t>Driving Dribble Hesitation</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -14449,44 +14449,44 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DRIVINGDUNK</t>
+          <t>DRIVINGDRIBBLEHESITATION</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DRIVING_DUNK_TENDENCY, Driving Dunk Tendency</t>
+          <t>DRIVING_DRIBBLE_HESITATION_TENDENCY, Driving Dribble Hesitation</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x45B (type=slider, length=8, startBit=0)</t>
+          <t>0x494 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0x45F (type=slider, length=8, startBit=0)</t>
+          <t>0x498 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0x45F (type=slider, length=8, startBit=0)</t>
+          <t>0x498 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0x3ca (type=Integer, length=7, startBit=5)</t>
+          <t>0x404 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0x419 (type=Integer, length=7, startBit=6)</t>
+          <t>0x452 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Driving Half Spin</t>
+          <t>Driving Dunk Tendency</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -14496,37 +14496,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DRIBBLESPIN</t>
+          <t>DRIVINGDUNK</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DRIVE_SPIN_TENDENCY, DRIVING_HALF_SPIN_TENDENCY, Dribble Half Spin, Dribble Spin, Driving Half Spin, Driving Spin</t>
+          <t>DRIVING_DUNK_TENDENCY, Driving Dunk Tendency</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x491 (type=slider, length=8, startBit=0)</t>
+          <t>0x45B (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0x495 (type=slider, length=8, startBit=0)</t>
+          <t>0x45F (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0x495 (type=slider, length=8, startBit=0)</t>
+          <t>0x45F (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0x400 (type=Integer, length=7, startBit=7)</t>
+          <t>0x3ca (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0x450 (type=Integer, length=7, startBit=0)</t>
+          <t>0x419 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
     </row>
@@ -16554,7 +16554,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Shot 3pt Left Center</t>
+          <t>Shot 3pt Center</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -16564,44 +16564,44 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3POINTLEFTSHOT</t>
+          <t>3POINTCENTERSHOT</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SHOT_THREE_LEFT-CENTER_TENDENCY, SHOT_THREE_LEFT_TENDENCY, Shot 3pt Left, Shot 3pt Left Center, Shot Three Left, Shot Three Left Center</t>
+          <t>SHOT_THREE_CENTER_TENDENCY, SHOT_THREE_RIGHT-CENTER_TENDENCY, Shot 3pt Center, Shot 3pt Right Center, Shot Three Center, Shot Three Right Center</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0x476 (type=slider, length=8, startBit=0)</t>
+          <t>0x478 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0x47A (type=slider, length=8, startBit=0)</t>
+          <t>0x47C (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0x47A (type=slider, length=8, startBit=0)</t>
+          <t>0x47C (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0x3e5 (type=Integer, length=7, startBit=6)</t>
+          <t>0x3e8 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0x434 (type=Integer, length=7, startBit=7)</t>
+          <t>0x436 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Shot 3pt Right</t>
+          <t>Shot 3pt Left</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -16611,44 +16611,44 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3POINTRIGHTSHOT</t>
+          <t>3POINTLEFTSHOT</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SHOT_THREE_RIGHT_TENDENCY, Shot 3pt Right, Shot Three Right</t>
+          <t>SHOT_THREE_LEFT-CENTER_TENDENCY, SHOT_THREE_LEFT_TENDENCY, Shot 3pt Left, Shot 3pt Left Center, Shot Three Left, Shot Three Left Center</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0x479 (type=slider, length=8, startBit=0)</t>
+          <t>0x476 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0x47D (type=slider, length=8, startBit=0)</t>
+          <t>0x47A (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0x47D (type=slider, length=8, startBit=0)</t>
+          <t>0x47A (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0x3e8 (type=Integer, length=7, startBit=7)</t>
+          <t>0x3e5 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0x438 (type=Integer, length=7, startBit=0)</t>
+          <t>0x434 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Shot Close Left</t>
+          <t>Shot 3pt Right</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -16658,44 +16658,44 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CLOSESHOT</t>
+          <t>3POINTRIGHTSHOT</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SHOT_CLOSE_LEFT_TENDENCY, SHOT_CLOSE_TENDENCY, Shot Close, Shot Close Left</t>
+          <t>SHOT_THREE_RIGHT_TENDENCY, Shot 3pt Right, Shot Three Right</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0x467 (type=slider, length=8, startBit=0)</t>
+          <t>0x479 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0x46B (type=slider, length=8, startBit=0)</t>
+          <t>0x47D (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0x46B (type=slider, length=8, startBit=0)</t>
+          <t>0x47D (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0x3d6 (type=Integer, length=7, startBit=5)</t>
+          <t>0x3e8 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0x425 (type=Integer, length=7, startBit=6)</t>
+          <t>0x438 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Shot Close Middle</t>
+          <t>Shot Close Left</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -16705,44 +16705,44 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CLOSEMIDDLESHOT</t>
+          <t>CLOSESHOT</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SHOT_CLOSE_MIDDLE_TENDENCY, Shot Close Middle</t>
+          <t>SHOT_CLOSE_LEFT_TENDENCY, SHOT_CLOSE_TENDENCY, Shot Close, Shot Close Left</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0x468 (type=slider, length=8, startBit=0)</t>
+          <t>0x467 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0x46C (type=slider, length=8, startBit=0)</t>
+          <t>0x46B (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0x46C (type=slider, length=8, startBit=0)</t>
+          <t>0x46B (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0x3d8 (type=Integer, length=7, startBit=0)</t>
+          <t>0x3d6 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0x426 (type=Integer, length=7, startBit=5)</t>
+          <t>0x425 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Shot Close Right</t>
+          <t>Shot Close Middle</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -16752,44 +16752,44 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CLOSERIGHTSHOT</t>
+          <t>CLOSEMIDDLESHOT</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SHOT_CLOSE_RIGHT_TENDENCY, Shot Close Right</t>
+          <t>SHOT_CLOSE_MIDDLE_TENDENCY, Shot Close Middle</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0x469 (type=slider, length=8, startBit=0)</t>
+          <t>0x468 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0x46D (type=slider, length=8, startBit=0)</t>
+          <t>0x46C (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0x46D (type=slider, length=8, startBit=0)</t>
+          <t>0x46C (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0x3d8 (type=Integer, length=7, startBit=7)</t>
+          <t>0x3d8 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0x428 (type=Integer, length=7, startBit=0)</t>
+          <t>0x426 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Shot Mid</t>
+          <t>Shot Close Right</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -16799,44 +16799,44 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MIDSHOT</t>
+          <t>CLOSERIGHTSHOT</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SHOT_MID-RANGE_TENDENCY, SPOT_UP_SHOT_MID-RANGE_TENDENCY, Shot Mid, Spot Up Shot Mid</t>
+          <t>SHOT_CLOSE_RIGHT_TENDENCY, Shot Close Right</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0x46B (type=slider, length=8, startBit=0)</t>
+          <t>0x469 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0x46F (type=slider, length=8, startBit=0)</t>
+          <t>0x46D (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0x46F (type=slider, length=8, startBit=0)</t>
+          <t>0x46D (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0x3da (type=Integer, length=7, startBit=5)</t>
+          <t>0x3d8 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0x429 (type=Integer, length=7, startBit=6)</t>
+          <t>0x428 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Shot Mid Center</t>
+          <t>Shot Mid</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -16846,44 +16846,44 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CENTERMIDSHOT</t>
+          <t>MIDSHOT</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SHOT_MID_CENTER_TENDENCY, SHOT_MID_RIGHT-CENTER_TENDENCY, Shot Mid Center, Shot Mid Right Center</t>
+          <t>SHOT_MID-RANGE_TENDENCY, SPOT_UP_SHOT_MID-RANGE_TENDENCY, Shot Mid, Spot Up Shot Mid</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0x470 (type=slider, length=8, startBit=0)</t>
+          <t>0x46B (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0x474 (type=slider, length=8, startBit=0)</t>
+          <t>0x46F (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0x474 (type=slider, length=8, startBit=0)</t>
+          <t>0x46F (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0x3e0 (type=Integer, length=7, startBit=0)</t>
+          <t>0x3da (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0x42E (type=Integer, length=7, startBit=5)</t>
+          <t>0x429 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Shot Mid Left</t>
+          <t>Shot Mid Left Center</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -16977,7 +16977,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Shot Three</t>
+          <t>Shot Mid Right Center</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -16987,44 +16987,44 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3POINTSHOT</t>
+          <t>CENTERMIDSHOT</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SHOT_THREE_TENDENCY, SPOT_UP_SHOT_THREE_TENDENCY, Shot 3pt, Shot Three, Spot Up Shot 3pt, Spot Up Shot Three</t>
+          <t>SHOT_MID_CENTER_TENDENCY, SHOT_MID_RIGHT-CENTER_TENDENCY, Shot Mid Center, Shot Mid Right Center</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0x473 (type=slider, length=8, startBit=0)</t>
+          <t>0x470 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0x477 (type=slider, length=8, startBit=0)</t>
+          <t>0x474 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0x477 (type=slider, length=8, startBit=0)</t>
+          <t>0x474 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0x3e2 (type=Integer, length=7, startBit=5)</t>
+          <t>0x3e0 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0x431 (type=Integer, length=7, startBit=6)</t>
+          <t>0x42E (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Shot Three Right Center</t>
+          <t>Shot Under Basket</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -17034,44 +17034,44 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3POINTCENTERSHOT</t>
+          <t>BASKETUNDERSHOT</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SHOT_THREE_CENTER_TENDENCY, SHOT_THREE_RIGHT-CENTER_TENDENCY, Shot 3pt Center, Shot 3pt Right Center, Shot Three Center, Shot Three Right Center</t>
+          <t>SHOT_UNDER_BASKET_TENDENCY, Shot Under Basket</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0x478 (type=slider, length=8, startBit=0)</t>
+          <t>0x465 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0x47C (type=slider, length=8, startBit=0)</t>
+          <t>0x469 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0x47C (type=slider, length=8, startBit=0)</t>
+          <t>0x469 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0x3e8 (type=Integer, length=7, startBit=0)</t>
+          <t>0x3d4 (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0x436 (type=Integer, length=7, startBit=5)</t>
+          <t>0x424 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Shot Under Basket</t>
+          <t>Spin Jumper Tendency</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -17081,44 +17081,44 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BASKETUNDERSHOT</t>
+          <t>SPINJUMPER</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SHOT_UNDER_BASKET_TENDENCY, Shot Under Basket</t>
+          <t>SPIN_JUMPER_TENDENCY, Spin Jumper, Spin Jumper Tendency</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0x465 (type=slider, length=8, startBit=0)</t>
+          <t>0x47E (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0x469 (type=slider, length=8, startBit=0)</t>
+          <t>0x482 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0x469 (type=slider, length=8, startBit=0)</t>
+          <t>0x482 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0x3d4 (type=Integer, length=7, startBit=7)</t>
+          <t>0x3ed (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0x424 (type=Integer, length=7, startBit=0)</t>
+          <t>0x43C (type=Integer, length=7, startBit=7)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Spin Jumper Tendency</t>
+          <t>Spin Layup</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -17128,44 +17128,44 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SPINJUMPER</t>
+          <t>SPINLAYUP</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SPIN_JUMPER_TENDENCY, Spin Jumper, Spin Jumper Tendency</t>
+          <t>SPIN_LAYUP_TENDENCY, Spin Layup</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0x47E (type=slider, length=8, startBit=0)</t>
+          <t>0x460 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0x482 (type=slider, length=8, startBit=0)</t>
+          <t>0x464 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0x482 (type=slider, length=8, startBit=0)</t>
+          <t>0x464 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0x3ed (type=Integer, length=7, startBit=6)</t>
+          <t>0x3d0 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0x43C (type=Integer, length=7, startBit=7)</t>
+          <t>0x41E (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Spin Layup</t>
+          <t>Spot Up Drive</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -17175,44 +17175,44 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SPINLAYUP</t>
+          <t>SPOTUPDRIVE</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SPIN_LAYUP_TENDENCY, Spin Layup</t>
+          <t>SPOT_UP_DRIVE_TENDENCY, Spot Up Drive</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0x460 (type=slider, length=8, startBit=0)</t>
+          <t>0x484 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0x464 (type=slider, length=8, startBit=0)</t>
+          <t>0x488 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0x464 (type=slider, length=8, startBit=0)</t>
+          <t>0x488 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0x3d0 (type=Integer, length=7, startBit=0)</t>
+          <t>0x3f4 (type=Integer, length=7, startBit=0)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0x41E (type=Integer, length=7, startBit=5)</t>
+          <t>0x442 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Spot Up Drive</t>
+          <t>Spot Up Shot 3pt</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -17222,37 +17222,37 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SPOTUPDRIVE</t>
+          <t>3POINTSHOT</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SPOT_UP_DRIVE_TENDENCY, Spot Up Drive</t>
+          <t>SHOT_THREE_TENDENCY, SPOT_UP_SHOT_THREE_TENDENCY, Shot 3pt, Shot Three, Spot Up Shot 3pt, Spot Up Shot Three</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0x484 (type=slider, length=8, startBit=0)</t>
+          <t>0x473 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0x488 (type=slider, length=8, startBit=0)</t>
+          <t>0x477 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0x488 (type=slider, length=8, startBit=0)</t>
+          <t>0x477 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0x3f4 (type=Integer, length=7, startBit=0)</t>
+          <t>0x3e2 (type=Integer, length=7, startBit=5)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0x442 (type=Integer, length=7, startBit=5)</t>
+          <t>0x431 (type=Integer, length=7, startBit=6)</t>
         </is>
       </c>
     </row>
@@ -24621,7 +24621,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Left Ankle Home Color</t>
+          <t>Left Ankle Item Home Color</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -24668,7 +24668,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Left Arm Away Color</t>
+          <t>Left Arm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -24678,44 +24678,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LEFTARMAWAYCOLOR</t>
+          <t>LEFTARM</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LEFT_ARM_AWAY_COLOR, Left Arm Away Color, Left Arm Item Away Color</t>
+          <t>LEFT_ARM, LEFT_ARM_FREQUENCY, Left Arm, Left Arm Frequency</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x156 (type=combo, length=3, startBit=2)</t>
+          <t>0x34E (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0x132 (type=combo, length=3, startBit=2)</t>
+          <t>0x34A (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0x132 (type=combo, length=3, startBit=2)</t>
+          <t>0x34A (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0x181 (type=Integer, length=3, startBit=6)</t>
+          <t>0x346 (type=Integer, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0x189 (type=Integer, length=3, startBit=6)</t>
+          <t>0x396 (type=Integer, length=3, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Left Arm Frequency</t>
+          <t>Left Arm Away Color</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -24725,37 +24725,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LEFTARM</t>
+          <t>LEFTARMAWAYCOLOR</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LEFT_ARM, LEFT_ARM_FREQUENCY, Left Arm, Left Arm Frequency</t>
+          <t>LEFT_ARM_AWAY_COLOR, Left Arm Away Color, Left Arm Item Away Color</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x34E (type=combo, length=3, startBit=5)</t>
+          <t>0x156 (type=combo, length=3, startBit=2)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0x34A (type=combo, length=3, startBit=5)</t>
+          <t>0x132 (type=combo, length=3, startBit=2)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0x34A (type=combo, length=3, startBit=5)</t>
+          <t>0x132 (type=combo, length=3, startBit=2)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0x346 (type=Integer, length=3, startBit=5)</t>
+          <t>0x181 (type=Integer, length=3, startBit=6)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0x396 (type=Integer, length=3, startBit=5)</t>
+          <t>0x189 (type=Integer, length=3, startBit=6)</t>
         </is>
       </c>
     </row>
@@ -24950,7 +24950,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Left Fingers</t>
+          <t>Left Fingers Away Color</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -24960,44 +24960,44 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LEFTFINGERS</t>
+          <t>LEFTFINGERSAWAYCOLOR</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LEFT_FINGERS, LEFT_FINGERS_FREQUENCY, Left Fingers, Left Fingers Frequency</t>
+          <t>LEFT_FINGERS_AWAY_COLOR, Left Fingers Away Color, Left Fingers Item Away Color</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x352 (type=combo, length=3, startBit=4)</t>
+          <t>0x160 (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0x34E (type=combo, length=3, startBit=4)</t>
+          <t>0x13C (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0x34E (type=combo, length=3, startBit=4)</t>
+          <t>0x13C (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0x34a (type=Integer, length=3, startBit=4)</t>
+          <t>0x18c (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0x39A (type=Integer, length=3, startBit=4)</t>
+          <t>0x194 (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Left Fingers Away Color</t>
+          <t>Left Fingers Frequency</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -25007,37 +25007,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LEFTFINGERSAWAYCOLOR</t>
+          <t>LEFTFINGERS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LEFT_FINGERS_AWAY_COLOR, Left Fingers Away Color, Left Fingers Item Away Color</t>
+          <t>LEFT_FINGERS, LEFT_FINGERS_FREQUENCY, Left Fingers, Left Fingers Frequency</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x160 (type=combo, length=3, startBit=3)</t>
+          <t>0x352 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0x13C (type=combo, length=3, startBit=3)</t>
+          <t>0x34E (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0x13C (type=combo, length=3, startBit=3)</t>
+          <t>0x34E (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0x18c (type=Integer, length=3, startBit=3)</t>
+          <t>0x34a (type=Integer, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0x194 (type=Integer, length=3, startBit=3)</t>
+          <t>0x39A (type=Integer, length=3, startBit=4)</t>
         </is>
       </c>
     </row>
@@ -25091,7 +25091,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Left Knee Away Color</t>
+          <t>Left Knee</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -25101,44 +25101,44 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LEFTKNEEAWAYCOLOR</t>
+          <t>LEFTKNEE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LEFT_KNEE_AWAY_COLOR, Left Knee Away Color, Left Knee Item Away Color</t>
+          <t>LEFT_KNEE, LEFT_KNEE_FREQUENCY, Left Knee, Left Knee Frequency</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x164 (type=combo, length=3, startBit=3)</t>
+          <t>0x132 (type=combo, length=3, startBit=7)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0x140 (type=combo, length=3, startBit=3)</t>
+          <t>0x10B (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0x140 (type=combo, length=3, startBit=3)</t>
+          <t>0x10B (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0x190 (type=Integer, length=3, startBit=3)</t>
+          <t>0x162 (type=Integer, length=3, startBit=2)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0x198 (type=Integer, length=3, startBit=3)</t>
+          <t>0x16A (type=Integer, length=3, startBit=2)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Left Knee Frequency</t>
+          <t>Left Knee Away Color</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -25148,37 +25148,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LEFTKNEE</t>
+          <t>LEFTKNEEAWAYCOLOR</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LEFT_KNEE, LEFT_KNEE_FREQUENCY, Left Knee, Left Knee Frequency</t>
+          <t>LEFT_KNEE_AWAY_COLOR, Left Knee Away Color, Left Knee Item Away Color</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x132 (type=combo, length=3, startBit=7)</t>
+          <t>0x164 (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0x10B (type=combo, length=3, startBit=1)</t>
+          <t>0x140 (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0x10B (type=combo, length=3, startBit=1)</t>
+          <t>0x140 (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0x162 (type=Integer, length=3, startBit=2)</t>
+          <t>0x190 (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0x16A (type=Integer, length=3, startBit=2)</t>
+          <t>0x198 (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
     </row>
@@ -25232,7 +25232,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Left Leg</t>
+          <t>Left Leg Frequency</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -25279,7 +25279,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Left Leg Away Color</t>
+          <t>Left Leg Home Color</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -25289,44 +25289,44 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LEFTLEGAWAYCOLOR</t>
+          <t>LEFTLEGHOMECOLOR</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LEFT_LEG_AWAY_COLOR, Left Leg Away Color, Left Leg Item Away Color</t>
+          <t>LEFT_LEG_HOME_COLOR, Left Leg Home Color, Left Leg Item Home Color</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x162 (type=combo, length=3, startBit=3)</t>
+          <t>0x162 (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0x13E (type=combo, length=3, startBit=3)</t>
+          <t>0x13E (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0x13E (type=combo, length=3, startBit=3)</t>
+          <t>0x13E (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0x18e (type=Integer, length=3, startBit=3)</t>
+          <t>0x18e (type=Integer, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0x196 (type=Integer, length=3, startBit=3)</t>
+          <t>0x196 (type=Integer, length=3, startBit=0)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Left Leg Item Home Color</t>
+          <t>Left Leg Item Away Color</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -25336,44 +25336,44 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LEFTLEGHOMECOLOR</t>
+          <t>LEFTLEGAWAYCOLOR</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LEFT_LEG_HOME_COLOR, Left Leg Home Color, Left Leg Item Home Color</t>
+          <t>LEFT_LEG_AWAY_COLOR, Left Leg Away Color, Left Leg Item Away Color</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x162 (type=combo, length=3, startBit=0)</t>
+          <t>0x162 (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0x13E (type=combo, length=3, startBit=0)</t>
+          <t>0x13E (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0x13E (type=combo, length=3, startBit=0)</t>
+          <t>0x13E (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0x18e (type=Integer, length=3, startBit=0)</t>
+          <t>0x18e (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0x196 (type=Integer, length=3, startBit=0)</t>
+          <t>0x196 (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Left Wrist Away Color</t>
+          <t>Left Wrist</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -25383,44 +25383,44 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LEFTWRISTAWAYCOLOR</t>
+          <t>LEFTWRIST</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LEFT_WRIST_AWAY_COLOR, Left Wrist Away Color, Left Wrist Item Away Color</t>
+          <t>LEFT_WRIST, LEFT_WRIST_FREQUENCY, Left Wrist, Left Wrist Frequency</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x15B (type=combo, length=4, startBit=4)</t>
+          <t>0x34D (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0x137 (type=combo, length=4, startBit=4)</t>
+          <t>0x349 (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0x137 (type=combo, length=4, startBit=4)</t>
+          <t>0x349 (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0x186 (type=Integer, length=5, startBit=6)</t>
+          <t>0x345 (type=Integer, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0x18E (type=Integer, length=5, startBit=6)</t>
+          <t>0x395 (type=Integer, length=3, startBit=1)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Left Wrist Frequency</t>
+          <t>Left Wrist Away Color</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -25430,44 +25430,44 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LEFTWRIST</t>
+          <t>LEFTWRISTAWAYCOLOR</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LEFT_WRIST, LEFT_WRIST_FREQUENCY, Left Wrist, Left Wrist Frequency</t>
+          <t>LEFT_WRIST_AWAY_COLOR, Left Wrist Away Color, Left Wrist Item Away Color</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x34D (type=combo, length=3, startBit=1)</t>
+          <t>0x15B (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0x349 (type=combo, length=3, startBit=1)</t>
+          <t>0x137 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0x349 (type=combo, length=3, startBit=1)</t>
+          <t>0x137 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0x345 (type=Integer, length=3, startBit=1)</t>
+          <t>0x186 (type=Integer, length=5, startBit=6)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0x395 (type=Integer, length=3, startBit=1)</t>
+          <t>0x18E (type=Integer, length=5, startBit=6)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Left Wrist Item Home Color</t>
+          <t>Left Wrist Home Color</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -25655,7 +25655,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Right Ankle Item Home Color</t>
+          <t>Right Ankle Home Color</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -25749,7 +25749,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Right Arm Away Color</t>
+          <t>Right Arm Item Away Color</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -25843,7 +25843,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Right Elbow Frequency</t>
+          <t>Right Elbow</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -25890,7 +25890,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Right Elbow Item Away Color</t>
+          <t>Right Elbow Away Color</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -25937,7 +25937,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Right Elbow Item Home Color</t>
+          <t>Right Elbow Home Color</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -26031,7 +26031,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Right Fingers Item Away Color</t>
+          <t>Right Fingers Away Color</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -26125,7 +26125,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Right Knee</t>
+          <t>Right Knee Away Color</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -26135,44 +26135,44 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RIGHTKNEE</t>
+          <t>RIGHTKNEEAWAYCOLOR</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RIGHT_KNEE, RIGHT_KNEE_FREQUENCY, Right Knee, Right Knee Frequency</t>
+          <t>RIGHT_KNEE_AWAY_COLOR, Right Knee Away Color, Right Knee Item Away Color</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0x351 (type=combo, length=3, startBit=3)</t>
+          <t>0x165 (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0x34D (type=combo, length=3, startBit=3)</t>
+          <t>0x141 (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0x34D (type=combo, length=3, startBit=3)</t>
+          <t>0x141 (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0x349 (type=Integer, length=3, startBit=3)</t>
+          <t>0x191 (type=Integer, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0x399 (type=Integer, length=3, startBit=3)</t>
+          <t>0x199 (type=Integer, length=3, startBit=1)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Right Knee Item Away Color</t>
+          <t>Right Knee Frequency</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -26182,44 +26182,44 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RIGHTKNEEAWAYCOLOR</t>
+          <t>RIGHTKNEE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RIGHT_KNEE_AWAY_COLOR, Right Knee Away Color, Right Knee Item Away Color</t>
+          <t>RIGHT_KNEE, RIGHT_KNEE_FREQUENCY, Right Knee, Right Knee Frequency</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0x165 (type=combo, length=3, startBit=1)</t>
+          <t>0x351 (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0x141 (type=combo, length=3, startBit=1)</t>
+          <t>0x34D (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0x141 (type=combo, length=3, startBit=1)</t>
+          <t>0x34D (type=combo, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0x191 (type=Integer, length=3, startBit=1)</t>
+          <t>0x349 (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0x199 (type=Integer, length=3, startBit=1)</t>
+          <t>0x399 (type=Integer, length=3, startBit=3)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Right Knee Item Home Color</t>
+          <t>Right Knee Home Color</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -26313,7 +26313,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Right Leg Away Color</t>
+          <t>Right Leg Item Away Color</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -26454,7 +26454,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Right Wrist Home Color</t>
+          <t>Right Wrist Away Color</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -26464,44 +26464,44 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RIGHTWRISTHOMECOLOR</t>
+          <t>RIGHTWRISTAWAYCOLOR</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RIGHT_WRIST_HOME_COLOR, Right Wrist Home Color, Right Wrist Item Home Color</t>
+          <t>RIGHT_WRIST_AWAY_COLOR, Right Wrist Away Color, Right Wrist Item Away Color</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0x15C (type=combo, length=4, startBit=0)</t>
+          <t>0x15C (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0x138 (type=combo, length=4, startBit=0)</t>
+          <t>0x138 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0x138 (type=combo, length=4, startBit=0)</t>
+          <t>0x138 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0x187 (type=Integer, length=5, startBit=3)</t>
+          <t>0x188 (type=Integer, length=5, startBit=3)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0x18F (type=Integer, length=5, startBit=3)</t>
+          <t>0x190 (type=Integer, length=5, startBit=3)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Right Wrist Item Away Color</t>
+          <t>Right Wrist Home Color</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -26511,37 +26511,37 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RIGHTWRISTAWAYCOLOR</t>
+          <t>RIGHTWRISTHOMECOLOR</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RIGHT_WRIST_AWAY_COLOR, Right Wrist Away Color, Right Wrist Item Away Color</t>
+          <t>RIGHT_WRIST_HOME_COLOR, Right Wrist Home Color, Right Wrist Item Home Color</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0x15C (type=combo, length=4, startBit=4)</t>
+          <t>0x15C (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0x138 (type=combo, length=4, startBit=4)</t>
+          <t>0x138 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0x138 (type=combo, length=4, startBit=4)</t>
+          <t>0x138 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0x188 (type=Integer, length=5, startBit=3)</t>
+          <t>0x187 (type=Integer, length=5, startBit=3)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0x190 (type=Integer, length=5, startBit=3)</t>
+          <t>0x18F (type=Integer, length=5, startBit=3)</t>
         </is>
       </c>
     </row>
@@ -26927,7 +26927,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mid Range Left Center</t>
+          <t>Mid Range Center</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -26937,44 +26937,44 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIDRANGELEFT</t>
+          <t>MIDRANGECENTER</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MID-RANGE_LEFT, MID-RANGE_LEFT_CENTER, Mid Range Left, Mid Range Left Center, Mid-Range Left, Mid-Range Left-Center</t>
+          <t>MID-RANGE_RIGHT_CENTER, MID_CENTER, Mid Range Center, Mid Range Right Center, Mid-Range Center, Mid-Range Right-Center</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x327 (type=combo, length=2, startBit=3)</t>
+          <t>0x317 (type=combo, length=2, startBit=2)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0x323 (type=combo, length=2, startBit=3)</t>
+          <t>0x313 (type=combo, length=2, startBit=3)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0x323 (type=combo, length=2, startBit=3)</t>
+          <t>0x313 (type=combo, length=2, startBit=3)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0x1b8 (type=Integer, length=2, startBit=4)</t>
+          <t>0x2fa (type=Integer, length=2, startBit=3)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0x1C0 (type=Integer, length=2, startBit=4)</t>
+          <t>0x34A (type=Integer, length=2, startBit=3)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mid-Range Center</t>
+          <t>Mid-Range Left-Center</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -26984,37 +26984,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MIDRANGECENTER</t>
+          <t>MIDRANGELEFT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MID-RANGE_RIGHT_CENTER, MID_CENTER, Mid Range Center, Mid Range Right Center, Mid-Range Center, Mid-Range Right-Center</t>
+          <t>MID-RANGE_LEFT, MID-RANGE_LEFT_CENTER, Mid Range Left, Mid Range Left Center, Mid-Range Left, Mid-Range Left-Center</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x317 (type=combo, length=2, startBit=2)</t>
+          <t>0x327 (type=combo, length=2, startBit=3)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0x313 (type=combo, length=2, startBit=3)</t>
+          <t>0x323 (type=combo, length=2, startBit=3)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0x313 (type=combo, length=2, startBit=3)</t>
+          <t>0x323 (type=combo, length=2, startBit=3)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0x2fa (type=Integer, length=2, startBit=3)</t>
+          <t>0x1b8 (type=Integer, length=2, startBit=4)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0x34A (type=Integer, length=2, startBit=3)</t>
+          <t>0x1C0 (type=Integer, length=2, startBit=4)</t>
         </is>
       </c>
     </row>
@@ -27068,7 +27068,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Three Center</t>
+          <t>Three Left</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -27078,44 +27078,44 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3POINTCENTER</t>
+          <t>3POINTLEFT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3_RIGHT-CENTER, CENTER_3, Three Center, Three Right Center, Three Right-Center</t>
+          <t>3_LEFT-CENTER, LEFT_3, Three Left, Three Left Center, Three Left-Center</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x23B (type=combo, length=2, startBit=6)</t>
+          <t>0x2F7 (type=combo, length=2, startBit=4)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0x21B (type=combo, length=2, startBit=6)</t>
+          <t>0x37C (type=combo, length=2, startBit=7)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0x21B (type=combo, length=2, startBit=6)</t>
+          <t>0x37C (type=combo, length=2, startBit=7)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0x2e7 (type=Integer, length=2, startBit=5)</t>
+          <t>0x1bf (type=Integer, length=2, startBit=6)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0x1C3 (type=Integer, length=2, startBit=0)</t>
+          <t>0x1C7 (type=Integer, length=2, startBit=6)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Three Left-Center</t>
+          <t>Three Right</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -27125,44 +27125,44 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3POINTLEFT</t>
+          <t>3POINTRIGHT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3_LEFT-CENTER, LEFT_3, Three Left, Three Left Center, Three Left-Center</t>
+          <t>RIGHT_3, Three Right</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x2F7 (type=combo, length=2, startBit=4)</t>
+          <t>0x190 (type=combo, length=2, startBit=6)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0x37C (type=combo, length=2, startBit=7)</t>
+          <t>0x16C (type=combo, length=2, startBit=5)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0x37C (type=combo, length=2, startBit=7)</t>
+          <t>0x16C (type=combo, length=2, startBit=5)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0x1bf (type=Integer, length=2, startBit=6)</t>
+          <t>0x1bb (type=Integer, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0x1C7 (type=Integer, length=2, startBit=6)</t>
+          <t>0x337 (type=Integer, length=2, startBit=5)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Three Right</t>
+          <t>Three Right-Center</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -27172,37 +27172,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3POINTRIGHT</t>
+          <t>3POINTCENTER</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RIGHT_3, Three Right</t>
+          <t>3_RIGHT-CENTER, CENTER_3, Three Center, Three Right Center, Three Right-Center</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x190 (type=combo, length=2, startBit=6)</t>
+          <t>0x23B (type=combo, length=2, startBit=6)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0x16C (type=combo, length=2, startBit=5)</t>
+          <t>0x21B (type=combo, length=2, startBit=6)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0x16C (type=combo, length=2, startBit=5)</t>
+          <t>0x21B (type=combo, length=2, startBit=6)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0x1bb (type=Integer, length=2, startBit=0)</t>
+          <t>0x2e7 (type=Integer, length=2, startBit=5)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0x337 (type=Integer, length=2, startBit=5)</t>
+          <t>0x1C3 (type=Integer, length=2, startBit=0)</t>
         </is>
       </c>
     </row>
